--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40E81F-519B-4249-AE5E-3CEE8EC08018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="F01.BVA" sheetId="3" r:id="rId3"/>
     <sheet name="BBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,12 +84,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="M13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -464,6 +463,9 @@
     <t>amount is double</t>
   </si>
   <si>
+    <t>amount &gt;= 0</t>
+  </si>
+  <si>
     <t>is not integer</t>
   </si>
   <si>
@@ -609,12 +611,6 @@
     <t>TC2_BVA</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -678,14 +674,14 @@
     <t xml:space="preserve"> addPayment(int table, PaymentType type, double amount):void</t>
   </si>
   <si>
-    <t>amount &gt; 0</t>
+    <t>-5.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +875,15 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1302,7 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,15 +1412,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,6 +1608,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,9 +1636,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1671,9 +1676,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1708,7 +1713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,7 +1748,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1916,45 +1921,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="94" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="H1" s="39" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="H1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="2:10">
       <c r="H3" s="2"/>
@@ -1970,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="2">
         <v>237</v>
@@ -1981,23 +1986,23 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="2">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="26"/>
+      <c r="B6" s="25"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.55" customHeight="1"/>
+    <row r="7" spans="2:10" ht="14.5" customHeight="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2030,23 +2035,23 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" ht="28.8">
-      <c r="B15" s="60" t="s">
-        <v>102</v>
+    <row r="15" spans="2:10" ht="29">
+      <c r="B15" s="56" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" ht="28.8">
-      <c r="B16" s="60" t="s">
-        <v>103</v>
+    <row r="16" spans="2:10" ht="29">
+      <c r="B16" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2058,7 +2063,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2069,9 +2074,9 @@
     </row>
     <row r="20" spans="1:15">
       <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="35"/>
+        <v>103</v>
+      </c>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:15">
       <c r="B21" s="1" t="s">
@@ -2112,26 +2117,26 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.55" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="61" t="s">
+    <row r="24" spans="1:15" ht="14.5" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2145,93 +2150,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.36328125" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" customWidth="1"/>
+    <col min="16" max="16" width="6.6328125" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="G5" s="67" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="G5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="69"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="16" t="s">
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2239,25 +2244,25 @@
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2265,255 +2270,255 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="16">
+        <v>64</v>
+      </c>
+      <c r="G8" s="15">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="51">
         <v>25</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>91</v>
+      <c r="K8" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>68</v>
+      <c r="C9" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="51">
+        <v>55</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="55">
-        <v>55</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="16">
+        <v>71</v>
+      </c>
+      <c r="G10" s="15">
         <v>3</v>
       </c>
-      <c r="H10" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="13">
+      <c r="H10" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="12">
         <v>10</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="51">
         <v>820</v>
       </c>
-      <c r="K10" s="41" t="s">
-        <v>91</v>
+      <c r="K10" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="66" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="41" t="s">
-        <v>76</v>
+      <c r="J11" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="16">
+        <v>68</v>
+      </c>
+      <c r="G12" s="15">
         <v>5</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>83</v>
+      <c r="H12" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="I12" s="4">
         <v>2</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>-50</v>
       </c>
-      <c r="K12" s="41" t="s">
-        <v>91</v>
+      <c r="K12" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="71" t="s">
-        <v>105</v>
+      <c r="C13" s="67" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="44"/>
+        <v>72</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="44"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="41"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="44"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="41"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="41"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -2521,8 +2526,8 @@
       <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2548,73 +2553,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.109375" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.08984375" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.36328125" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="69"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.55" customHeight="1">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.5" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
@@ -2624,359 +2629,359 @@
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="77" t="s">
+      <c r="E6" s="6"/>
+      <c r="G6" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="46" t="s">
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="45" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="71">
+      <c r="B7" s="67">
         <v>1</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>65</v>
+      <c r="C7" s="86" t="s">
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="79"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="83"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="10">
+      <c r="J8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="9">
         <v>5</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="53">
         <v>10</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>77</v>
+      <c r="M8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="83"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="2"/>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>2</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J9" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="12">
         <v>10</v>
       </c>
-      <c r="L9" s="57">
+      <c r="L9" s="53">
         <v>10</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>81</v>
+      <c r="M9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="83"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="2"/>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>3</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>85</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="57">
+      <c r="L10" s="53">
         <v>10</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>77</v>
+      <c r="M10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="83"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="2"/>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>4</v>
       </c>
       <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>86</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>85</v>
       </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="68"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="67">
+        <v>2</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M11" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="72"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="71">
-        <v>2</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="2"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="2"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="2"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="2"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="G19" s="16"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="G20" s="16"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="G21" s="16"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="G22" s="16"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="G23" s="16"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="G24" s="16"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="G25" s="16"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="32"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="31"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="33"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3004,340 +3009,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1"/>
-    <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="39.453125" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" customWidth="1"/>
+    <col min="13" max="13" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="2:16">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="82"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="117"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="19.95" customHeight="1" thickTop="1">
-      <c r="B6" s="17">
+    <row r="6" spans="2:16" ht="20" customHeight="1" thickTop="1">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="21">
-        <v>8</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="20">
+        <v>5</v>
+      </c>
+      <c r="G6" s="116">
+        <v>10</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="119">
         <v>10</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="49" t="s">
+      <c r="G7" s="117">
+        <v>10</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <f t="shared" ref="B8" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="20">
+        <v>5</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:16" ht="14.5" customHeight="1">
+      <c r="B10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickTop="1">
+      <c r="C12" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.5" customHeight="1">
+      <c r="B13" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="97"/>
+      <c r="J13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="26">
+        <v>3</v>
+      </c>
+      <c r="D15" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="2:16" ht="14.55" customHeight="1">
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1">
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickTop="1">
-      <c r="C12" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-    </row>
-    <row r="13" spans="2:16" ht="14.55" customHeight="1">
-      <c r="B13" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="27">
-        <v>3</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>2</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>2</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <v>2</v>
       </c>
-      <c r="H15" s="105">
+      <c r="H15" s="101">
         <v>45743</v>
       </c>
-      <c r="I15" s="106"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="2">
         <v>3</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <v>3</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <v>0</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="50">
         <v>45743</v>
       </c>
       <c r="N15" s="2">
         <v>3</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="28">
         <v>3</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3382,6 +3387,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3525,22 +3539,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3558,19 +3571,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>